--- a/spec/ASW/Veh/Driver/VehMot/VMD/CoVMD/CoVMD_TrqDesCoord/CoVMD_TrqDesCoord.xlsx
+++ b/spec/ASW/Veh/Driver/VehMot/VMD/CoVMD/CoVMD_TrqDesCoord/CoVMD_TrqDesCoord.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\Unitfolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Veh\Driver\VehMot\VMD\CoVMD\CoVMD_TrqDesCoord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1E728A-8F39-4BDA-97A9-68E28248061F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CAE9E8-80E2-4B1E-A69D-64B4E7C054F4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="85">
   <si>
     <t>Name</t>
   </si>
@@ -70,6 +70,231 @@
   </si>
   <si>
     <t>InitialValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT_trqWhlMinEng</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>Nm</t>
+  </si>
+  <si>
+    <t>Minimum wheel torque from the engine</t>
+  </si>
+  <si>
+    <t>WESDem_stCfg</t>
+  </si>
+  <si>
+    <t>Configuration of the actual operating mode</t>
+  </si>
+  <si>
+    <t>AccPed_trqDes</t>
+  </si>
+  <si>
+    <t>Driver torque value of propulsion after step limitation</t>
+  </si>
+  <si>
+    <t>PT_trqWhlMaxEng</t>
+  </si>
+  <si>
+    <t>Maximum wheel torque from the engine</t>
+  </si>
+  <si>
+    <t>AccPed_stBrkDes</t>
+  </si>
+  <si>
+    <t>Application parameter for engine brake request</t>
+  </si>
+  <si>
+    <t>AccPed_facCompAcs</t>
+  </si>
+  <si>
+    <t>HLSDem_nSetPLo</t>
+  </si>
+  <si>
+    <t>rpm</t>
+  </si>
+  <si>
+    <t>Minimum engine speed of HLSDem</t>
+  </si>
+  <si>
+    <t>APP_r</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Acceleration pedal sensor 1 value after fault handling</t>
+  </si>
+  <si>
+    <t>VMD_swtTrqSel</t>
+  </si>
+  <si>
+    <t>Driver demand - Cruise control torque selection switch</t>
+  </si>
+  <si>
+    <t>VMD_swtVCMActv</t>
+  </si>
+  <si>
+    <t>Application parameter which Indicates whether Vehicle Control Mode(VCM) is enabled or disabled</t>
+  </si>
+  <si>
+    <t>VMD_stBrkDes</t>
+  </si>
+  <si>
+    <t>Application parameter for torque status information</t>
+  </si>
+  <si>
+    <t>VMD_trqDesUnLim</t>
+  </si>
+  <si>
+    <t>Desired torque in front of top speed limitation Nm</t>
+  </si>
+  <si>
+    <t>VMD_trqDesRaw</t>
+  </si>
+  <si>
+    <t>Raw value of propulsion torque demand.</t>
+  </si>
+  <si>
+    <t>VMD_trqDesIn</t>
+  </si>
+  <si>
+    <t>Desired Propulsion Torque Nm</t>
+  </si>
+  <si>
+    <t>VMD_trqDes</t>
+  </si>
+  <si>
+    <t>propulsion  torque after driving assistance coordination</t>
+  </si>
+  <si>
+    <t>VehMot_facCompAcs</t>
+  </si>
+  <si>
+    <t>VehMot_stPrpLLim</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>Status longitudinal limiter controls propulsion torque</t>
+  </si>
+  <si>
+    <t>VehMot_stPrpCrCt</t>
+  </si>
+  <si>
+    <t>Status cruise control overrides acceleration pedal</t>
+  </si>
+  <si>
+    <t>VMD_trqDesInThres_mp</t>
+  </si>
+  <si>
+    <t>Lead torque from driver and Variable Engine Speed Governor Nm</t>
+  </si>
+  <si>
+    <t>VMD_swtTrqSel_mp</t>
+  </si>
+  <si>
+    <t>VMD_nsetplocomp_mp</t>
+  </si>
+  <si>
+    <t>Compare of Minimum engine speed</t>
+  </si>
+  <si>
+    <t>VMD_appr_mp</t>
+  </si>
+  <si>
+    <t>Compare of  app</t>
+  </si>
+  <si>
+    <t>VMD_trqdescomp_mp</t>
+  </si>
+  <si>
+    <t>Compare of torque</t>
+  </si>
+  <si>
+    <t>VMD_accpedstbrkdes_mp</t>
+  </si>
+  <si>
+    <t>Compare of status of brake pedal</t>
+  </si>
+  <si>
+    <t>CoVMD_facTrq_C</t>
+  </si>
+  <si>
+    <t>VMD_swtVCMActv_C</t>
+  </si>
+  <si>
+    <t>Switch to enable/disable Vehicle control mode</t>
+  </si>
+  <si>
+    <t>DrvDem_nSetPLo_C</t>
+  </si>
+  <si>
+    <t>Minimal engine speed of DrvDem</t>
+  </si>
+  <si>
+    <t>Torque Demand from Driver Pedal</t>
+  </si>
+  <si>
+    <t>VMD_CRUISE_CONTROL</t>
+  </si>
+  <si>
+    <t>Torque Demand from Cruise Control</t>
+  </si>
+  <si>
+    <t>VMD_ENGINE_BRAKE</t>
+  </si>
+  <si>
+    <t>Torque Demand from Engine Brake</t>
+  </si>
+  <si>
+    <t>uint8</t>
+  </si>
+  <si>
+    <t>State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>State2</t>
+  </si>
+  <si>
+    <t>Fac_10</t>
+  </si>
+  <si>
+    <t>ERPM</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Switch.OFF</t>
+  </si>
+  <si>
+    <t>Enum:Switch</t>
+  </si>
+  <si>
+    <t>Fac_10 "Overrun Ramp"</t>
+  </si>
+  <si>
+    <t>Compensation Fac_10 for loss compensation</t>
+  </si>
+  <si>
+    <t>Adjustment Fac_10 for the frictional torque</t>
+  </si>
+  <si>
+    <t>VMD_ACCPED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Torq</t>
+  </si>
+  <si>
+    <t>Torq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -501,6 +726,205 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>65535</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>255</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-4</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3.9990000000000001</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>100</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -510,10 +934,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,6 +978,242 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>255</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>65535</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="5">
+        <v>-4</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3.9990000000000001</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -563,10 +1223,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -606,6 +1266,147 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -617,7 +1418,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -657,11 +1458,71 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-30</v>
+      </c>
+      <c r="C2" s="5">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-12000</v>
+      </c>
+      <c r="C4" s="5">
+        <v>12000</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E6" s="6"/>
@@ -726,10 +1587,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -759,6 +1620,48 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="5">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
